--- a/data.xlsx
+++ b/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlcos\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\Forecasting_ARIMA_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D645B67-0270-4184-A667-135303114EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F58E92-7D22-49A2-B70C-488C36D80F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EE67557C-D79A-41C8-9768-4B9DC0491C14}"/>
   </bookViews>
@@ -428,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{549A276E-1847-42BD-AB85-873ADBBC7089}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,7 +450,7 @@
     <col min="12" max="12" width="5.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -488,7 +488,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>20</v>
       </c>
@@ -519,8 +519,12 @@
       <c r="L2">
         <v>1240</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2">
+        <f>L2/COUNT(E2:K2)</f>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>19</v>
       </c>
@@ -552,7 +556,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>18</v>
       </c>
@@ -584,7 +588,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>17</v>
       </c>
@@ -616,7 +620,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>16</v>
       </c>
@@ -645,7 +649,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>15</v>
       </c>
@@ -668,7 +672,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>14</v>
       </c>
@@ -697,7 +701,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>13</v>
       </c>
@@ -729,7 +733,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>12</v>
       </c>
@@ -761,7 +765,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -793,7 +797,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -825,7 +829,7 @@
         <v>2569</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
@@ -857,7 +861,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8</v>
       </c>
@@ -886,7 +890,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>7</v>
       </c>
@@ -918,7 +922,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>6</v>
       </c>
